--- a/Pubmed/CCHF/ReferenceSummary_PubMed_Missing_Apr7.xlsx
+++ b/Pubmed/CCHF/ReferenceSummary_PubMed_Missing_Apr7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/CCHF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E72CE9-5ECD-AB4A-81FF-8C9F6D5E28DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA0CEA1-078D-494D-90E9-AE8B2A5299BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="700" windowWidth="34560" windowHeight="19780" xr2:uid="{3031CDAD-EDE9-504F-A9EA-0D1529922A9B}"/>
+    <workbookView xWindow="3360" yWindow="11940" windowWidth="34560" windowHeight="19780" xr2:uid="{3031CDAD-EDE9-504F-A9EA-0D1529922A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="142">
   <si>
     <t>Authors</t>
   </si>
@@ -429,6 +429,51 @@
   </si>
   <si>
     <t>Sanger and NGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5812/archcid-129126 </t>
+  </si>
+  <si>
+    <t>Detection of Crimean-Congo haemorrhagic fever virus in Hyalomma marginatum ticks, southern France, May 2022 and April 2023</t>
+  </si>
+  <si>
+    <t>Bernard C, Joly Kukla C, Rakotoarivony I, Duhayon M, Stachurski F, Huber K, Giupponi C, Zortman I, Holzmuller P, Pollet T, Jeanneau M, Mercey A, Vachiery N, Lefrançois T, Garros C, Michaud V, Comtet L, Despois L, Pourquier P, Picard C, Journeaux A, Thomas D, Godard S, Moissonnier E, Mely S, Sega M, Pannetier D, Baize S, Vial L.</t>
+  </si>
+  <si>
+    <t>Euro Surveill</t>
+  </si>
+  <si>
+    <t>One health investigation following a cluster of Crimean-Congo haemorrhagic fever, North Macedonia, July to November 2023</t>
+  </si>
+  <si>
+    <t>Jakimovski D, Banović P, Spasovska K, Rangelov G, Cvetanovska M, Cana F, Simin V, Bogdan I, Mijatović D, Cvetkovikj A, Djadjovski I, Christova I, Meletis E, Kostoulas P, Zana B, Lanszki Z, Görföl T, Tauber Z, Kemenesi G.</t>
+  </si>
+  <si>
+    <t>Genotypes of the Congo-Crimean Hemorrhagic Fever Virus Occurring in the Turkestan Region</t>
+  </si>
+  <si>
+    <t>Abuova GN, Pshenichnaya N, Karan LS, Berdaliyeva FA, Aliyev DS, Sadyhova DK, Polukchi TV, Nurmagambet SD</t>
+  </si>
+  <si>
+    <t>Archives of Clinical Infectious Diseases</t>
+  </si>
+  <si>
+    <t>S and M</t>
+  </si>
+  <si>
+    <t>2016-2021</t>
+  </si>
+  <si>
+    <t>2022-2023</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>PP067047-PP067088</t>
+  </si>
+  <si>
+    <t>PP729064, PP729065, PP729066</t>
   </si>
 </sst>
 </file>
@@ -923,11 +968,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4482E4AD-E7FE-EC42-9928-56B66BBA47E4}">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -944,12 +989,12 @@
     <col min="10" max="10" width="13.5" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="13.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="47" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="21.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="23.5" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="47" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5" style="1" customWidth="1"/>
     <col min="19" max="19" width="26" style="1" customWidth="1"/>
     <col min="20" max="20" width="10.83203125" style="1" customWidth="1"/>
     <col min="21" max="22" width="17.1640625" style="1" customWidth="1"/>
@@ -1418,7 +1463,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>92</v>
       </c>
@@ -1634,6 +1679,138 @@
       <c r="V15" s="1" t="s">
         <v>69</v>
       </c>
+    </row>
+    <row r="16" spans="1:23" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2022</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" s="1">
+        <v>10</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17">
+        <v>2024</v>
+      </c>
+      <c r="D17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="1">
+        <v>38333936</v>
+      </c>
+      <c r="M17" s="1">
+        <v>14</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18">
+        <v>2025</v>
+      </c>
+      <c r="D18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="1">
+        <v>39885822</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="1">
+        <v>2023</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="D23"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:W15" xr:uid="{4482E4AD-E7FE-EC42-9928-56B66BBA47E4}"/>
